--- a/Check.xlsx
+++ b/Check.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\1 этап\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A0A31C-F15B-4C3F-93C0-618A0DFA61B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D43E283-7A75-41A6-ABE1-BC9FC36384B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{216DC539-E48A-4513-8FE5-AEB5AD0F2474}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="45">
   <si>
     <t>Проверка</t>
   </si>
@@ -156,6 +156,18 @@
   </si>
   <si>
     <t>Группа проверок</t>
+  </si>
+  <si>
+    <t>Проверка работы кнопки "О приложении"</t>
+  </si>
+  <si>
+    <t>Пройден</t>
+  </si>
+  <si>
+    <t>Не пройден</t>
+  </si>
+  <si>
+    <t>Не рабочая ссылка</t>
   </si>
 </sst>
 </file>
@@ -352,35 +364,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -696,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D06ABBC-E572-4479-81A6-BB33CA1FDA5F}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -712,7 +724,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31.8" thickBot="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -738,98 +750,112 @@
       <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="C3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:5" ht="15" thickBot="1">
       <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="12"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
+      <c r="D5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:5" ht="15" thickBot="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="12"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A8" s="15"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A9" s="15"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" ht="30.6" thickBot="1">
-      <c r="A10" s="15"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A11" s="15"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5" ht="16.2" thickBot="1">
@@ -840,11 +866,13 @@
       <c r="C12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5" ht="30.6" thickBot="1">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -853,62 +881,74 @@
       <c r="C13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A14" s="15"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A15" s="15"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="6" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A16" s="15"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A17" s="15"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="8"/>
+      <c r="D17" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A18" s="15"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="8"/>
+      <c r="D18" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5" ht="30.6" thickBot="1">
@@ -919,11 +959,13 @@
       <c r="C19" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="8"/>
+      <c r="D19" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" ht="45.6" thickBot="1">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="6" t="s">
@@ -932,62 +974,74 @@
       <c r="C20" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:5" ht="30.6" thickBot="1">
-      <c r="A21" s="15"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="8"/>
+      <c r="D21" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" ht="30.6" thickBot="1">
-      <c r="A22" s="15"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="8"/>
+      <c r="D22" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5" ht="30.6" thickBot="1">
-      <c r="A23" s="15"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="8"/>
+      <c r="D23" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A24" s="15"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="D24" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="E24" s="8"/>
     </row>
     <row r="25" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A25" s="15"/>
+      <c r="A25" s="11"/>
       <c r="B25" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="8"/>
+      <c r="D25" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:5" ht="30.6" thickBot="1">
@@ -998,11 +1052,13 @@
       <c r="C26" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="8"/>
+      <c r="D26" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="E26" s="8"/>
     </row>
     <row r="27" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B27" s="6" t="s">
@@ -1011,7 +1067,9 @@
       <c r="C27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="8"/>
+      <c r="D27" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="E27" s="8"/>
     </row>
     <row r="28" spans="1:5" ht="30.6" thickBot="1">
@@ -1022,7 +1080,9 @@
       <c r="C28" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="8"/>
+      <c r="D28" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="E28" s="8"/>
     </row>
     <row r="29" spans="1:5" ht="30.6" thickBot="1">
@@ -1035,40 +1095,58 @@
       <c r="C29" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="8"/>
+      <c r="D29" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="E29" s="8"/>
     </row>
     <row r="30" spans="1:5" ht="16.2" thickBot="1">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="8"/>
+      <c r="D30" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="E30" s="8"/>
     </row>
-    <row r="31" spans="1:5" ht="30.6" thickBot="1">
-      <c r="A31" s="12"/>
+    <row r="31" spans="1:5" ht="31.2" thickBot="1">
+      <c r="A31" s="11"/>
       <c r="B31" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
+      <c r="D31" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="31.2" thickBot="1">
+      <c r="A32" s="12"/>
+      <c r="B32" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A13:A19"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
@@ -1078,6 +1156,11 @@
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="E5:E7"/>
+    <mergeCell ref="A13:A19"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
